--- a/invoice_декабрь.xlsx
+++ b/invoice_декабрь.xlsx
@@ -486,15 +486,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11491</v>
+        <v>10611</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Цилиндр поворота колес гидравлический HOWO  WG9731470070—N</t>
+          <t>Лист рессорная задняя  25*90  Nº2  173см—Д</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45632.95252314815</v>
+        <v>45636.92385416666</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -505,10 +505,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="H2" t="n">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="3">
@@ -518,15 +518,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11492</v>
+        <v>10939</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Масса включатель   ХОВО—Д</t>
+          <t>Втулка торсиона кабины HOWO фторопласт LEO</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45632.95252314815</v>
+        <v>45636.92385416666</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="H3" t="n">
-        <v>140000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="4">
@@ -550,15 +550,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11493</v>
+        <v>11113</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Насос ГУР HOWO D=58, Z=17 6x4 (WG9619470080/1) DELECO  альминиевий—Х</t>
+          <t>Подфарник боковой</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45632.95252314815</v>
+        <v>45636.92385416666</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -566,13 +566,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>1200000</v>
+        <v>35000</v>
       </c>
       <c r="H4" t="n">
-        <v>1200000</v>
+        <v>420000</v>
       </c>
     </row>
   </sheetData>
